--- a/Algorithm_Vocab.xlsx
+++ b/Algorithm_Vocab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlmqu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianli/Projects/python-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF56BC2F-1461-B842-A4E3-F8AC335CD135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="840" windowWidth="38400" windowHeight="22480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>dramatic</t>
   </si>
@@ -211,13 +212,19 @@
   </si>
   <si>
     <t>/daɪˈæɡənl/ (n) đường chéo</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>(v) áp đặt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +323,22 @@
       <i/>
       <sz val="11"/>
       <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,8 +480,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,24 +761,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -770,7 +793,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -787,7 +810,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -806,7 +829,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -827,7 +850,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -848,7 +871,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="15">
@@ -869,7 +892,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -894,7 +917,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13">
@@ -913,7 +936,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -934,7 +957,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -955,7 +978,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -976,7 +999,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13">
@@ -995,7 +1018,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1010,7 +1033,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1025,7 +1048,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1040,7 +1063,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1055,7 +1078,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1070,7 +1093,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1085,7 +1108,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1100,7 +1123,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1115,7 +1138,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1130,7 +1153,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1145,7 +1168,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1160,7 +1183,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1175,7 +1198,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1190,7 +1213,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1205,7 +1228,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1220,7 +1243,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1236,7 +1259,7 @@
       <c r="M28" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C4:E12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E12">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,24 +1268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1277,7 +1300,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -1294,7 +1317,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -1315,7 +1338,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -1338,7 +1361,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -1361,7 +1384,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
@@ -1384,7 +1407,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -1407,7 +1430,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -1428,7 +1451,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -1449,7 +1472,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1470,17 +1493,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>41</v>
+      <c r="D11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="6"/>
@@ -1491,17 +1514,17 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>35</v>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="6"/>
@@ -1512,17 +1535,17 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="6"/>
@@ -1533,17 +1556,17 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="6"/>
@@ -1554,17 +1577,17 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>13</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="6"/>
@@ -1575,17 +1598,17 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1596,17 +1619,17 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>52</v>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="6"/>
@@ -1617,17 +1640,17 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>28</v>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1638,17 +1661,17 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1659,17 +1682,17 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>59</v>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1680,17 +1703,17 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>43</v>
+      <c r="D21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1701,17 +1724,17 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
+      <c r="D22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1722,17 +1745,17 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>38</v>
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1743,12 +1766,18 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1758,7 +1787,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1773,7 +1802,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1788,7 +1817,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1803,7 +1832,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1819,7 +1848,7 @@
       <c r="M28" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C3:E23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:E24">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm_Vocab.xlsx
+++ b/Algorithm_Vocab.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianli/Projects/python-practice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF56BC2F-1461-B842-A4E3-F8AC335CD135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="840" windowWidth="38400" windowHeight="22480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="840" windowWidth="38400" windowHeight="22485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>dramatic</t>
   </si>
@@ -218,13 +217,25 @@
   </si>
   <si>
     <t>(v) áp đặt</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>(n) phần còn lại</t>
+  </si>
+  <si>
+    <t>evenly divisible</t>
+  </si>
+  <si>
+    <t>(adj) đều chia hết</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +354,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -430,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -482,6 +502,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,24 +782,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -793,7 +814,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -810,7 +831,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -829,7 +850,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -850,7 +871,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -871,7 +892,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="15">
@@ -892,7 +913,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -917,7 +938,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13">
@@ -936,7 +957,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -957,7 +978,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -978,7 +999,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -999,7 +1020,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13">
@@ -1018,7 +1039,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1033,7 +1054,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1048,7 +1069,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1063,7 +1084,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1078,7 +1099,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1093,7 +1114,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1108,7 +1129,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1123,7 +1144,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1138,7 +1159,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1153,7 +1174,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1168,7 +1189,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1183,7 +1204,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1198,7 +1219,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1213,7 +1234,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1228,7 +1249,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1243,7 +1264,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1259,7 +1280,7 @@
       <c r="M28" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E12">
+  <sortState ref="C4:E12">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,24 +1289,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1299,8 +1320,17 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -1316,8 +1346,17 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -1337,8 +1376,17 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -1360,8 +1408,17 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -1383,8 +1440,17 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
@@ -1406,8 +1472,17 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -1429,8 +1504,17 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -1450,8 +1534,17 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -1471,18 +1564,27 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>29</v>
+      <c r="D10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="6"/>
@@ -1492,18 +1594,27 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>63</v>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="6"/>
@@ -1513,18 +1624,27 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>41</v>
+      <c r="D12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="6"/>
@@ -1534,18 +1654,27 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>35</v>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="6"/>
@@ -1555,18 +1684,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>48</v>
+      <c r="D14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="6"/>
@@ -1576,18 +1714,27 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>13</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="6"/>
@@ -1597,18 +1744,27 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1618,18 +1774,27 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>15</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="6"/>
@@ -1639,18 +1804,27 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>52</v>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1660,18 +1834,27 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>28</v>
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1681,18 +1864,27 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>47</v>
+      <c r="D20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1702,18 +1894,27 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>59</v>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1723,18 +1924,27 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>43</v>
+      <c r="D22" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1744,18 +1954,27 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>39</v>
+      <c r="D23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1765,18 +1984,27 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1786,13 +2014,28 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1801,13 +2044,28 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1816,8 +2074,17 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1831,8 +2098,17 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1846,9 +2122,546 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:E24">
+  <sortState ref="C3:E26">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm_Vocab.xlsx
+++ b/Algorithm_Vocab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>dramatic</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>(adj) đều chia hết</t>
+  </si>
+  <si>
+    <t>adjacent</t>
+  </si>
+  <si>
+    <t>(adj) liền kề</t>
+  </si>
+  <si>
+    <t>vertex</t>
+  </si>
+  <si>
+    <t>(n) đỉnh</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>(adj) gọn nhẹ</t>
+  </si>
+  <si>
+    <t>depiction</t>
+  </si>
+  <si>
+    <t>(n) sự miêu tả</t>
+  </si>
+  <si>
+    <t>exploit</t>
+  </si>
+  <si>
+    <t>(v) khai thác</t>
   </si>
 </sst>
 </file>
@@ -402,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -446,11 +476,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -484,25 +523,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,7 +1336,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,11 +1377,11 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1362,13 +1405,13 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="35"/>
+      <c r="D3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="28"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1392,13 +1435,13 @@
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="6"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
@@ -1425,12 +1468,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="39"/>
       <c r="G5" s="6"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -1456,11 +1499,11 @@
       <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>51</v>
+      <c r="D6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="6"/>
@@ -1488,13 +1531,13 @@
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="36"/>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="6"/>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -1520,11 +1563,11 @@
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>32</v>
+      <c r="D8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6"/>
@@ -1550,13 +1593,13 @@
       <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="D9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="39"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1580,13 +1623,13 @@
       <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="31"/>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1610,11 +1653,11 @@
       <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>29</v>
+      <c r="D11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="6"/>
@@ -1640,13 +1683,13 @@
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="D12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="39"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1670,13 +1713,13 @@
       <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="32"/>
+      <c r="D13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1700,13 +1743,13 @@
       <c r="C14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="32"/>
+      <c r="D14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1730,13 +1773,13 @@
       <c r="C15" s="7">
         <v>13</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1760,13 +1803,13 @@
       <c r="C16" s="7">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="D16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="44"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1790,13 +1833,13 @@
       <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="D17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1820,11 +1863,11 @@
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>45</v>
+      <c r="D18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1850,11 +1893,11 @@
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>52</v>
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1880,13 +1923,13 @@
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="D20" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="44"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1910,11 +1953,11 @@
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>47</v>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1940,11 +1983,11 @@
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>65</v>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1970,11 +2013,11 @@
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>59</v>
+      <c r="D23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2000,13 +2043,13 @@
       <c r="C24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="27"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2030,13 +2073,13 @@
       <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="D25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="44"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2060,11 +2103,11 @@
       <c r="C26" s="7">
         <v>24</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2087,9 +2130,15 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="7">
+        <v>25</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2111,10 +2160,16 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="7">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="27"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2135,10 +2190,16 @@
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="7">
+        <v>27</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="44"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2159,9 +2220,15 @@
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2183,9 +2250,15 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2661,7 +2734,7 @@
       <c r="V50" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C3:E26">
+  <sortState ref="C3:E31">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm_Vocab.xlsx
+++ b/Algorithm_Vocab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>dramatic</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>(v) khai thác</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>(v) cung cấp</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,11 +2049,11 @@
       <c r="C24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>28</v>
+      <c r="D24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="6"/>
@@ -2073,11 +2079,11 @@
       <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>47</v>
+      <c r="D25" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="6"/>
@@ -2103,11 +2109,11 @@
       <c r="C26" s="7">
         <v>24</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>65</v>
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2134,10 +2140,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2163,11 +2169,11 @@
       <c r="C28" s="7">
         <v>26</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>43</v>
+      <c r="D28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="6"/>
@@ -2193,11 +2199,11 @@
       <c r="C29" s="7">
         <v>27</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>39</v>
+      <c r="D29" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="6"/>
@@ -2223,11 +2229,11 @@
       <c r="C30" s="7">
         <v>28</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>38</v>
+      <c r="D30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2253,11 +2259,11 @@
       <c r="C31" s="7">
         <v>29</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>71</v>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2280,9 +2286,15 @@
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="7">
+        <v>30</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2734,7 +2746,7 @@
       <c r="V50" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C3:E31">
+  <sortState ref="C3:E32">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm_Vocab.xlsx
+++ b/Algorithm_Vocab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianli/Projects/python-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6B611-4A35-7A40-ABE1-C4D7DA15C9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="840" windowWidth="38400" windowHeight="22485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>dramatic</t>
   </si>
@@ -265,13 +266,51 @@
   </si>
   <si>
     <t>(v) cung cấp</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>(v) look or seem like</t>
+  </si>
+  <si>
+    <t>(n) thông lượng</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <r>
+      <t>(adj) strong and healthy; vig</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orous</t>
+    </r>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>(adj) bất kỳ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +438,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -495,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -546,12 +592,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,24 +878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -863,7 +910,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -880,7 +927,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -899,7 +946,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -920,7 +967,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -941,7 +988,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="15">
@@ -962,7 +1009,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -987,7 +1034,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13">
@@ -1006,7 +1053,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -1027,7 +1074,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -1048,7 +1095,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -1069,7 +1116,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13">
@@ -1088,7 +1135,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1103,7 +1150,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1118,7 +1165,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1133,7 +1180,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1148,7 +1195,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1163,7 +1210,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1178,7 +1225,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1193,7 +1240,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1208,7 +1255,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1223,7 +1270,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1238,7 +1285,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1253,7 +1300,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1268,7 +1315,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1283,7 +1330,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1298,7 +1345,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1313,7 +1360,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1329,7 +1376,7 @@
       <c r="M28" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C4:E12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E12">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,24 +1385,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1379,7 +1426,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="23"/>
@@ -1405,7 +1452,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -1435,7 +1482,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -1467,17 +1514,17 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="6"/>
@@ -1499,17 +1546,17 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>73</v>
+      <c r="D6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="6"/>
@@ -1531,17 +1578,17 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>56</v>
+      <c r="D7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -1563,17 +1610,17 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>51</v>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6"/>
@@ -1593,17 +1640,17 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="6"/>
@@ -1623,17 +1670,17 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>32</v>
+      <c r="D10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="6"/>
@@ -1653,17 +1700,17 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>75</v>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="6"/>
@@ -1683,17 +1730,17 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="6"/>
@@ -1713,17 +1760,17 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>67</v>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="6"/>
@@ -1743,17 +1790,17 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>77</v>
+      <c r="D14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="6"/>
@@ -1773,17 +1820,17 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>29</v>
+      <c r="D15" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="6"/>
@@ -1803,19 +1850,19 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>14</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="44"/>
+      <c r="D16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="42"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1833,17 +1880,17 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>41</v>
+      <c r="D17" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="6"/>
@@ -1863,17 +1910,17 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>35</v>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1893,17 +1940,17 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>48</v>
+      <c r="D19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1923,19 +1970,19 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>18</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="F20" s="42"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1953,17 +2000,17 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1983,17 +2030,17 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>20</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2013,17 +2060,17 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>52</v>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2043,17 +2090,17 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>79</v>
+      <c r="D24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="6"/>
@@ -2073,19 +2120,19 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="44"/>
+      <c r="D25" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="42"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2103,17 +2150,17 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>24</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>47</v>
+      <c r="D26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2133,17 +2180,17 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7">
         <v>25</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>65</v>
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2163,17 +2210,17 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>26</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="6"/>
@@ -2193,19 +2240,19 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7">
         <v>27</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="44"/>
+      <c r="D29" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="42"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2223,17 +2270,17 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7">
         <v>28</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>39</v>
+      <c r="D30" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2253,17 +2300,17 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
         <v>29</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>38</v>
+      <c r="D31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2283,17 +2330,17 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7">
         <v>30</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2313,12 +2360,18 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2337,12 +2390,18 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="7">
+        <v>32</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2361,12 +2420,18 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="C35" s="7">
+        <v>33</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2385,12 +2450,18 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="7">
+        <v>34</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2409,7 +2480,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2433,7 +2504,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2457,7 +2528,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2481,7 +2552,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2505,7 +2576,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2529,7 +2600,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2553,7 +2624,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2577,7 +2648,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2601,7 +2672,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2625,7 +2696,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2649,7 +2720,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2673,7 +2744,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2697,7 +2768,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2721,7 +2792,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2746,7 +2817,7 @@
       <c r="V50" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C3:E32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:E36">
     <sortCondition ref="D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
